--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -214,7 +214,7 @@
     <t>RegistrationDate::DateTime</t>
   </si>
   <si>
-    <t>Preferred Language::DateTime</t>
+    <t>Preferred Language::String</t>
   </si>
   <si>
     <t>Password::String</t>
@@ -252,6 +252,7 @@
   <fonts count="7">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -272,18 +273,21 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00800000"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00FF0000"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
       <sz val="10"/>
@@ -376,33 +380,33 @@
   </sheetPr>
   <dimension ref="A2:T34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U5" activeCellId="0" pane="topLeft" sqref="U5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G35" activeCellId="0" pane="topLeft" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.2901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4039215686275"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.356862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4274509803922"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0745098039216"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.643137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.321568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="15.5372549019608"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.356862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.2823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.0392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.4470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.1647058823529"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.7607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.4745098039216"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.4470588235294"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.3529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="F2" s="0" t="s">
         <v>0</v>
       </c>
@@ -410,7 +414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
@@ -444,7 +448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="4">
       <c r="L4" s="0" t="s">
         <v>12</v>
       </c>
@@ -464,7 +468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="E5" s="0" t="s">
         <v>15</v>
       </c>
@@ -475,7 +479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="6">
       <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
@@ -498,7 +502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="7">
       <c r="E7" s="0" t="s">
         <v>24</v>
       </c>
@@ -524,7 +528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="8">
       <c r="M8" s="7" t="s">
         <v>27</v>
       </c>
@@ -538,7 +542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
         <v>30</v>
       </c>
@@ -558,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -568,7 +572,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
@@ -576,12 +580,12 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="G12" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
         <v>33</v>
       </c>
@@ -607,7 +611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="14">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -639,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -659,7 +663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="16">
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
@@ -676,7 +680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="F17" s="0" t="s">
         <v>12</v>
       </c>
@@ -687,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
         <v>50</v>
       </c>
@@ -695,7 +699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="20">
       <c r="B20" s="8" t="s">
         <v>2</v>
       </c>
@@ -721,7 +725,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="B21" s="0" t="s">
         <v>12</v>
       </c>
@@ -750,7 +754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="22">
       <c r="F22" s="0" t="s">
         <v>12</v>
       </c>
@@ -767,12 +771,12 @@
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="B24" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
@@ -783,17 +787,17 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="29">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,7 +844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
         <v>12</v>
       </c>
@@ -884,17 +888,17 @@
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="B33" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="B34" s="0" t="s">
         <v>12</v>
       </c>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Path::String</t>
+  </si>
+  <si>
+    <t>Active::Bool</t>
   </si>
   <si>
     <t>PRIMKEY</t>
@@ -69,9 +72,6 @@
     <t>QuestionSetQuestion</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>Class.ID</t>
   </si>
   <si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Difficulty::String</t>
-  </si>
-  <si>
-    <t>Location::String</t>
   </si>
   <si>
     <t>PRIMKEY/ FORKEY</t>
@@ -115,6 +112,12 @@
     <t>RestrictedContest</t>
   </si>
   <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Location::String</t>
+  </si>
+  <si>
     <t>Class</t>
   </si>
   <si>
@@ -170,6 +173,10 @@
     <t>PupilID</t>
   </si>
   <si>
+    <t>FORKEY/
+PRIMKEY</t>
+  </si>
+  <si>
     <t>Teacher</t>
   </si>
   <si>
@@ -182,10 +189,16 @@
     <t>Address</t>
   </si>
   <si>
+    <t>Organizer</t>
+  </si>
+  <si>
     <t>Contest</t>
   </si>
   <si>
     <t>RC.IC</t>
+  </si>
+  <si>
+    <t>Active::Boolean</t>
   </si>
   <si>
     <t>NOTNULL / {OC,RC}</t>
@@ -196,9 +209,6 @@
 NOTNULL</t>
   </si>
   <si>
-    <t>Organizer</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -214,16 +224,13 @@
     <t>RegistrationDate::DateTime</t>
   </si>
   <si>
-    <t>Preferred Language::String</t>
+    <t>Preferred Language::DateTime</t>
   </si>
   <si>
     <t>Password::String</t>
   </si>
   <si>
     <t>Hash::String</t>
-  </si>
-  <si>
-    <t>Active::Boolean</t>
   </si>
   <si>
     <t>TYPE</t>
@@ -252,7 +259,6 @@
   <fonts count="7">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -273,21 +279,18 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <color rgb="00800000"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <color rgb="00FF0000"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
       <sz val="10"/>
@@ -380,33 +383,33 @@
   </sheetPr>
   <dimension ref="A2:T34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G35" activeCellId="0" pane="topLeft" sqref="G35"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L25" activeCellId="0" pane="topLeft" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.0392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4196078431373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.4470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.1647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.7607843137255"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.4745098039216"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.4470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.3529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7725490196078"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.2901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4039215686275"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.356862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4274509803922"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0745098039216"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.643137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.321568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="15.5372549019608"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.356862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.2823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.5764705882353"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="F2" s="0" t="s">
         <v>0</v>
       </c>
@@ -414,7 +417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
@@ -447,39 +450,42 @@
       <c r="R3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="4">
+      <c r="S3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
       <c r="L4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="5">
+        <v>14</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
       <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
@@ -495,74 +501,65 @@
       <c r="K6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="7">
+      <c r="E7" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="7">
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8">
+      <c r="M8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="8">
-      <c r="M8" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="M9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -571,150 +568,163 @@
         <v>5</v>
       </c>
       <c r="E10" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="S10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
+        <v>13</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="G12" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="14">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="A15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="16">
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="17">
       <c r="F17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="19">
+        <v>14</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="20">
+        <v>53</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="B20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
       <c r="L20" s="8" t="s">
         <v>2</v>
       </c>
@@ -725,182 +735,190 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="B21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="22">
-      <c r="F22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="B24" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="B24" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="F25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="27">
+      <c r="F27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="29">
+        <v>62</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="29">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="30">
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="30">
-      <c r="B30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="N30" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="32">
+        <v>61</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
+        <v>74</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="B33" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="B34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -86,6 +86,9 @@
     <t>Active::Bool</t>
   </si>
   <si>
+    <t>Author::String</t>
+  </si>
+  <si>
     <t>NOTNULL/
 FORKEY</t>
   </si>
@@ -143,13 +146,22 @@
     <t>PupilAnswers</t>
   </si>
   <si>
+    <t>AnonAnswers</t>
+  </si>
+  <si>
     <t>Question.ID</t>
   </si>
   <si>
     <t>Answer::String</t>
   </si>
   <si>
+    <t>FORKEY/ NOTNULL</t>
+  </si>
+  <si>
     <t>Contest</t>
+  </si>
+  <si>
+    <t>HelpTeachers</t>
   </si>
   <si>
     <t>Active::Boolean</t>
@@ -165,6 +177,10 @@
  {OC,RC}</t>
   </si>
   <si>
+    <t>PRIMKEY/
+ FORKEY</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
@@ -195,6 +211,9 @@
   </si>
   <si>
     <t>Telephone::String</t>
+  </si>
+  <si>
+    <t>Comments::String</t>
   </si>
   <si>
     <t>IF TYPE=T
@@ -343,8 +362,8 @@
   </sheetPr>
   <dimension ref="A2:R28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K5" activeCellId="0" pane="topLeft" sqref="K5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H23" activeCellId="0" pane="topLeft" sqref="H23:I23"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -360,7 +379,7 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.356862745098"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4274509803922"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0745098039216"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.1450980392157"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8196078431373"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.643137254902"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.321568627451"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="15.5372549019608"/>
@@ -458,6 +477,9 @@
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
@@ -473,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>10</v>
@@ -490,35 +512,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>7</v>
@@ -547,10 +569,10 @@
         <v>10</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>10</v>
@@ -563,14 +585,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="15">
@@ -578,23 +600,23 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
@@ -608,10 +630,10 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>9</v>
@@ -626,12 +648,15 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="19">
+        <v>40</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -639,10 +664,22 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -661,6 +698,18 @@
         <v>10</v>
       </c>
       <c r="E20" s="5"/>
+      <c r="F20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
       <c r="M20" s="5"/>
@@ -676,29 +725,38 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="23">
+      <c r="H22" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="24">
@@ -709,10 +767,16 @@
         <v>10</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -724,7 +788,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -732,40 +796,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -784,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>10</v>
@@ -802,13 +869,13 @@
         <v>10</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -86,13 +86,14 @@
     <t>Active::Bool</t>
   </si>
   <si>
-    <t>Author::String</t>
-  </si>
-  <si>
     <t>NOTNULL/
 FORKEY</t>
   </si>
   <si>
+    <t>NOTNULL/
+FORKEY (author)</t>
+  </si>
+  <si>
     <t>QuestionSetQuestion</t>
   </si>
   <si>
@@ -220,8 +221,7 @@
 NOTNULL</t>
   </si>
   <si>
-    <t>NOTNULL/
-{PUP,TE,AD,ORG}</t>
+    <t>FORKEY (currentClass in case of pupil)</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -343,6 +343,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -362,8 +363,8 @@
   </sheetPr>
   <dimension ref="A2:R28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H23" activeCellId="0" pane="topLeft" sqref="H23:I23"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O29" activeCellId="0" pane="topLeft" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -477,8 +478,8 @@
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="8">
@@ -495,13 +496,16 @@
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -834,7 +838,9 @@
       <c r="N27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="P27" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="28">
@@ -868,16 +874,15 @@
       <c r="J28" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L28" s="6" t="s">
         <v>63</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="P28" s="9"/>
     </row>
   </sheetData>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>Contest.ID</t>
+  </si>
+  <si>
+    <t>Boolean::active</t>
+  </si>
+  <si>
+    <t>String::name</t>
   </si>
   <si>
     <t>Class.ID</t>
@@ -63,17 +69,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Type::String</t>
-  </si>
-  <si>
-    <t>Name (DUT/FR
-/GE)::String</t>
-  </si>
-  <si>
-    <t>Correct Answer (DUT/FR
-/GE)::String</t>
-  </si>
-  <si>
     <t>Official ID::String</t>
   </si>
   <si>
@@ -150,12 +145,21 @@
     <t>AnonAnswers</t>
   </si>
   <si>
+    <t>QuestionSet.ID</t>
+  </si>
+  <si>
     <t>Question.ID</t>
   </si>
   <si>
     <t>Answer::String</t>
   </si>
   <si>
+    <t>Boolean::Correct</t>
+  </si>
+  <si>
+    <t>String::Language</t>
+  </si>
+  <si>
     <t>FORKEY/ NOTNULL</t>
   </si>
   <si>
@@ -163,6 +167,9 @@
   </si>
   <si>
     <t>HelpTeachers</t>
+  </si>
+  <si>
+    <t>Type::String</t>
   </si>
   <si>
     <t>Active::Boolean</t>
@@ -326,23 +333,24 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
@@ -363,13 +371,13 @@
   </sheetPr>
   <dimension ref="A2:R28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O29" activeCellId="0" pane="topLeft" sqref="O29"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G18" activeCellId="0" pane="topLeft" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5372549019608"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9176470588235"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6901960784314"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6117647058824"/>
@@ -390,18 +398,18 @@
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.5764705882353"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -411,192 +419,185 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>13</v>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
       <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="15">
@@ -604,68 +605,68 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>42</v>
@@ -673,68 +674,86 @@
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="L19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
       <c r="H22" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -742,57 +761,57 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -800,90 +819,90 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>12</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>Location::String</t>
+  </si>
+  <si>
+    <t>BaseURL::String</t>
+  </si>
+  <si>
+    <t>FTPuri::String</t>
+  </si>
+  <si>
+    <t>FTPPort::String</t>
+  </si>
+  <si>
+    <t>FTPUser::String</t>
+  </si>
+  <si>
+    <t>FTPPass::String</t>
   </si>
   <si>
     <t>FORKEY/
@@ -372,7 +387,7 @@
   <dimension ref="A2:R28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G18" activeCellId="0" pane="topLeft" sqref="G18"/>
+      <selection activeCell="O10" activeCellId="0" pane="topLeft" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -389,7 +404,7 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4274509803922"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0745098039216"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8196078431373"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.643137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.2352941176471"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.321568627451"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="15.5372549019608"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.356862745098"/>
@@ -600,7 +615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -623,6 +638,21 @@
       <c r="I15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
@@ -635,15 +665,30 @@
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -655,10 +700,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -666,37 +711,37 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
@@ -725,7 +770,7 @@
         <v>31</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>12</v>
@@ -748,12 +793,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="H22" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -764,16 +809,16 @@
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>9</v>
@@ -790,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>12</v>
@@ -799,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -811,7 +856,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -822,40 +867,40 @@
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O27" s="13" t="s">
         <v>8</v>
@@ -876,7 +921,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>12</v>
@@ -894,13 +939,13 @@
         <v>12</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P28" s="7"/>
     </row>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>FTPPass::String</t>
+  </si>
+  <si>
+    <t>(creator of the school data)</t>
   </si>
   <si>
     <t>FORKEY/
@@ -361,12 +364,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -387,7 +390,7 @@
   <dimension ref="A2:R28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O10" activeCellId="0" pane="topLeft" sqref="O10"/>
+      <selection activeCell="D17" activeCellId="0" pane="topLeft" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -603,15 +606,15 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -625,32 +628,34 @@
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -664,18 +669,18 @@
       <c r="C16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="0" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="J16" s="0" t="s">
         <v>12</v>
       </c>
@@ -689,6 +694,9 @@
         <v>12</v>
       </c>
       <c r="N16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -700,10 +708,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -711,37 +719,37 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="10" t="s">
         <v>50</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="10" t="s">
         <v>50</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
@@ -770,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>12</v>
@@ -781,11 +789,11 @@
       <c r="M20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="K21" s="7"/>
@@ -793,12 +801,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="H22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -809,16 +817,16 @@
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>9</v>
@@ -835,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>12</v>
@@ -844,19 +852,19 @@
         <v>14</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -867,42 +875,42 @@
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="G27" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="H27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="10" t="s">
         <v>8</v>
       </c>
       <c r="P27" s="7"/>
@@ -921,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>12</v>
@@ -939,13 +947,13 @@
         <v>12</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P28" s="7"/>
     </row>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Question</t>
   </si>
   <si>
+    <t>ID::int</t>
+  </si>
+  <si>
     <t>Official ID::String</t>
   </si>
   <si>
@@ -247,6 +250,30 @@
   </si>
   <si>
     <t>FORKEY (currentClass in case of pupil)</t>
+  </si>
+  <si>
+    <t>Grades</t>
+  </si>
+  <si>
+    <t>Difficulties</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Startage::int</t>
+  </si>
+  <si>
+    <t>Endage::int</t>
+  </si>
+  <si>
+    <t>Order::integer</t>
+  </si>
+  <si>
+    <t>Title::String</t>
+  </si>
+  <si>
+    <t>URL::String</t>
   </si>
 </sst>
 </file>
@@ -351,7 +378,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -370,6 +397,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -387,14 +415,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:R28"/>
+  <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D17" activeCellId="0" pane="topLeft" sqref="D17"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H31" activeCellId="0" pane="topLeft" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8941176470588"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5372549019608"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9176470588235"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6901960784314"/>
@@ -492,19 +520,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>9</v>
@@ -515,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
@@ -524,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -535,35 +563,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -592,10 +620,10 @@
         <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>12</v>
@@ -608,25 +636,25 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9"/>
       <c r="F14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
@@ -635,28 +663,28 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
@@ -670,13 +698,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>11</v>
@@ -708,10 +736,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -719,37 +747,37 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
@@ -775,10 +803,10 @@
         <v>11</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>12</v>
@@ -801,12 +829,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="H22" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -814,19 +842,19 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>9</v>
@@ -843,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>12</v>
@@ -852,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -864,7 +892,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -872,43 +900,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>8</v>
@@ -929,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>12</v>
@@ -947,15 +975,78 @@
         <v>12</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P28" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="A30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="A32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -204,6 +204,10 @@
   <si>
     <t>NOTNULL /
  {OC,RC}</t>
+  </si>
+  <si>
+    <t>FORKEY/NOTNULL
+(creator of contest)</t>
   </si>
   <si>
     <t>PRIMKEY/
@@ -417,8 +421,8 @@
   </sheetPr>
   <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H31" activeCellId="0" pane="topLeft" sqref="H31"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="C4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G23" activeCellId="0" pane="topLeft" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -833,7 +837,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="H22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>55</v>
       </c>
     </row>
@@ -856,10 +860,13 @@
       <c r="F23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -876,11 +883,14 @@
       <c r="D24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="G24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>61</v>
+      <c r="J24" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -892,7 +902,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -903,40 +913,40 @@
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>8</v>
@@ -957,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>12</v>
@@ -975,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P28" s="7"/>
     </row>
@@ -991,13 +1001,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -1007,22 +1017,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>FTPPass::String</t>
+  </si>
+  <si>
+    <t>FTPPath::String</t>
   </si>
   <si>
     <t>(creator of the school data)</t>
@@ -421,8 +424,8 @@
   </sheetPr>
   <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="C4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G23" activeCellId="0" pane="topLeft" sqref="G23"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="I4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O10" activeCellId="0" pane="topLeft" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -690,6 +693,9 @@
       <c r="O15" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="P15" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
@@ -702,13 +708,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>11</v>
@@ -740,10 +746,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -751,37 +757,37 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
@@ -810,7 +816,7 @@
         <v>32</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>12</v>
@@ -833,12 +839,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="I22" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -849,16 +855,16 @@
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>9</v>
@@ -878,19 +884,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -902,7 +908,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -913,40 +919,40 @@
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>8</v>
@@ -967,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>12</v>
@@ -985,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P28" s="7"/>
     </row>
@@ -1001,13 +1007,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -1017,22 +1023,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Server.ID</t>
   </si>
   <si>
-    <t>Path::String</t>
-  </si>
-  <si>
     <t>Active::Bool</t>
   </si>
   <si>
@@ -268,19 +265,22 @@
     <t>Links</t>
   </si>
   <si>
-    <t>Startage::int</t>
-  </si>
-  <si>
-    <t>Endage::int</t>
-  </si>
-  <si>
-    <t>Order::integer</t>
+    <t>lowerbound::int</t>
+  </si>
+  <si>
+    <t>upperbound::int</t>
+  </si>
+  <si>
+    <t>grade::integer</t>
   </si>
   <si>
     <t>Title::String</t>
   </si>
   <si>
     <t>URL::String</t>
+  </si>
+  <si>
+    <t>NOTNULL/UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -424,8 +424,8 @@
   </sheetPr>
   <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="I4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O10" activeCellId="0" pane="topLeft" sqref="O10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F33" activeCellId="0" pane="topLeft" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -538,10 +538,7 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -550,16 +547,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -570,35 +564,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
       <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -627,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>12</v>
@@ -643,14 +637,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9"/>
       <c r="F14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -658,10 +652,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
@@ -670,31 +664,31 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
@@ -708,13 +702,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>11</v>
@@ -746,10 +740,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -757,37 +751,37 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
@@ -813,10 +807,10 @@
         <v>11</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>12</v>
@@ -839,12 +833,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="I22" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -852,19 +846,19 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>9</v>
@@ -884,19 +878,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -908,7 +902,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -916,43 +910,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="G27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="H27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>8</v>
@@ -973,31 +967,31 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="P28" s="7"/>
     </row>
@@ -1007,38 +1001,38 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="H30" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1055,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -113,10 +113,16 @@
     <t>School.ID</t>
   </si>
   <si>
+    <t>Grades.Name</t>
+  </si>
+  <si>
     <t>FORKEY/
 NOTNULL</t>
   </si>
   <si>
+    <t>NOTNULL/FORKEY</t>
+  </si>
+  <si>
     <t>School</t>
   </si>
   <si>
@@ -151,6 +157,15 @@
   </si>
   <si>
     <t>FTPPath::String</t>
+  </si>
+  <si>
+    <t>isHttpSecured::boolean</t>
+  </si>
+  <si>
+    <t>HttpUsername::String</t>
+  </si>
+  <si>
+    <t>HttpPassword::String</t>
   </si>
   <si>
     <t>(creator of the school data)</t>
@@ -247,6 +262,9 @@
   </si>
   <si>
     <t>Comments::String</t>
+  </si>
+  <si>
+    <t>ResetToken::String</t>
   </si>
   <si>
     <t>IF TYPE=T
@@ -422,10 +440,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:R32"/>
+  <dimension ref="A2:S32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F33" activeCellId="0" pane="topLeft" sqref="F33"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="R18" activeCellId="0" pane="topLeft" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -443,10 +461,11 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0745098039216"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8196078431373"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.2352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.321568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="15.5372549019608"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.356862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.8352941176471"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.5372549019608"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.3843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.0274509803922"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.7490196078431"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.2823529411765"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.5764705882353"/>
   </cols>
@@ -571,7 +590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -597,8 +616,8 @@
       <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>4</v>
+      <c r="J11" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
@@ -621,13 +640,13 @@
         <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -637,14 +656,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="9"/>
       <c r="F14" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -655,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
@@ -664,31 +683,40 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
@@ -702,13 +730,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>11</v>
@@ -740,10 +768,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -751,37 +779,37 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
@@ -807,10 +835,10 @@
         <v>11</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>12</v>
@@ -833,12 +861,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="I22" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -849,16 +877,16 @@
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>9</v>
@@ -878,19 +906,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -902,7 +930,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -913,45 +941,47 @@
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="7"/>
+      <c r="P27" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
@@ -967,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>12</v>
@@ -985,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P28" s="7"/>
     </row>
@@ -1001,13 +1031,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -1017,22 +1047,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1049,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>End::DateTime</t>
+  </si>
+  <si>
+    <t>Duration::Int</t>
   </si>
   <si>
     <t>NOTNULL /
@@ -442,8 +445,8 @@
   </sheetPr>
   <dimension ref="A2:S32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="R18" activeCellId="0" pane="topLeft" sqref="R18"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H23" activeCellId="0" pane="topLeft" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -759,6 +762,9 @@
       <c r="O16" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="Q16" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="7"/>
@@ -865,7 +871,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="I22" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>60</v>
       </c>
     </row>
@@ -891,10 +897,13 @@
       <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -906,19 +915,22 @@
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>67</v>
+      <c r="K24" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -930,7 +942,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
@@ -941,46 +953,46 @@
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>8</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="28">
@@ -997,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>12</v>
@@ -1015,13 +1027,13 @@
         <v>12</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7"/>
     </row>
@@ -1031,13 +1043,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -1047,22 +1059,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1079,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -29,7 +29,7 @@
     <t>ID::String</t>
   </si>
   <si>
-    <t>Level::String</t>
+    <t>Grades.name</t>
   </si>
   <si>
     <t>Contest.ID</t>
@@ -53,10 +53,14 @@
     <t>PRIMKEY</t>
   </si>
   <si>
+    <t>NOTNULL/
+FORKEY</t>
+  </si>
+  <si>
+    <t>FORKEY/NOTNULL</t>
+  </si>
+  <si>
     <t>NOTNULL</t>
-  </si>
-  <si>
-    <t>FORKEY/NOTNULL</t>
   </si>
   <si>
     <t>PRIMKEY/ FORKEY</t>
@@ -82,10 +86,6 @@
   </si>
   <si>
     <t>NOTNULL/
-FORKEY</t>
-  </si>
-  <si>
-    <t>NOTNULL/
 FORKEY (author)</t>
   </si>
   <si>
@@ -101,7 +101,7 @@
     <t>Q.ID</t>
   </si>
   <si>
-    <t>Difficulty::String</t>
+    <t>Difficulties.name</t>
   </si>
   <si>
     <t>Name::String</t>
@@ -114,13 +114,13 @@
   </si>
   <si>
     <t>Grades.Name</t>
+  </si>
+  <si>
+    <t>NOTNULL/FORKEY</t>
   </si>
   <si>
     <t>FORKEY/
 NOTNULL</t>
-  </si>
-  <si>
-    <t>NOTNULL/FORKEY</t>
   </si>
   <si>
     <t>School</t>
@@ -409,8 +409,8 @@
   <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -445,8 +445,8 @@
   </sheetPr>
   <dimension ref="A2:S32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H23" activeCellId="0" pane="topLeft" sqref="H23"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -491,13 +491,13 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -517,50 +517,50 @@
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -569,10 +569,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>22</v>
@@ -605,51 +605,51 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -671,12 +671,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -691,34 +691,34 @@
       <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -727,10 +727,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>49</v>
@@ -745,25 +745,25 @@
         <v>11</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -790,10 +790,10 @@
       <c r="C19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -802,16 +802,16 @@
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="M19" s="11" t="s">
@@ -820,40 +820,40 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>58</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -879,25 +879,25 @@
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -912,22 +912,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>67</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>68</v>
@@ -949,16 +949,16 @@
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -967,25 +967,25 @@
       <c r="G27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="3" t="s">
         <v>79</v>
       </c>
       <c r="O27" s="10" t="s">
@@ -1000,31 +1000,31 @@
         <v>11</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>81</v>
@@ -1058,22 +1058,22 @@
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>88</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1082,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>11</v>
@@ -1097,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -280,25 +280,34 @@
     <t>Grades</t>
   </si>
   <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>lowerbound::int</t>
+  </si>
+  <si>
+    <t>upperbound::int</t>
+  </si>
+  <si>
+    <t>Title::String</t>
+  </si>
+  <si>
+    <t>URL::String</t>
+  </si>
+  <si>
     <t>Difficulties</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>lowerbound::int</t>
-  </si>
-  <si>
-    <t>upperbound::int</t>
-  </si>
-  <si>
     <t>grade::integer</t>
   </si>
   <si>
-    <t>Title::String</t>
-  </si>
-  <si>
-    <t>URL::String</t>
+    <t>cpoints::integer</t>
+  </si>
+  <si>
+    <t>wpoints::integer</t>
+  </si>
+  <si>
+    <t>npoints::integer</t>
   </si>
   <si>
     <t>NOTNULL/UNIQUE</t>
@@ -443,15 +452,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:S32"/>
+  <dimension ref="A2:S36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F36" activeCellId="0" pane="topLeft" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.356862745098"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9176470588235"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6901960784314"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6117647058824"/>
@@ -1045,11 +1054,8 @@
       <c r="A30" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="H30" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -1059,22 +1065,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="H31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1087,16 +1087,53 @@
       <c r="C32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>14</v>
       </c>
     </row>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -270,6 +270,9 @@
     <t>ResetToken::String</t>
   </si>
   <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
     <t>IF TYPE=T
 NOTNULL</t>
   </si>
@@ -311,6 +314,15 @@
   </si>
   <si>
     <t>NOTNULL/UNIQUE</t>
+  </si>
+  <si>
+    <t>CompetitionScore</t>
+  </si>
+  <si>
+    <t>Score::Integer</t>
+  </si>
+  <si>
+    <t>PRIMKEY/FORKEY</t>
   </si>
 </sst>
 </file>
@@ -452,15 +464,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:S36"/>
+  <dimension ref="A2:S40"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F36" activeCellId="0" pane="topLeft" sqref="F36"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G36" activeCellId="0" pane="topLeft" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.356862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6117647058824"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9176470588235"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6901960784314"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6117647058824"/>
@@ -1017,7 +1029,7 @@
       <c r="D28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="0" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="0" t="s">
@@ -1036,13 +1048,13 @@
         <v>14</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P28" s="7"/>
     </row>
@@ -1052,10 +1064,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -1065,16 +1077,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1100,7 +1112,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1108,16 +1120,16 @@
         <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1125,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>14</v>
@@ -1134,6 +1146,33 @@
         <v>14</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="A40" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>14</v>
       </c>
     </row>

--- a/design/database/databaserelaties.xlsx
+++ b/design/database/databaserelaties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>QuestionSet</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Hash::String</t>
+  </si>
+  <si>
+    <t>blockedUntil::Date</t>
   </si>
   <si>
     <t>TYPE::String</t>
@@ -467,7 +470,7 @@
   <dimension ref="A2:S40"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G36" activeCellId="0" pane="topLeft" sqref="G36"/>
+      <selection activeCell="J28" activeCellId="0" pane="topLeft" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -995,25 +998,25 @@
         <v>76</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>8</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="28">
@@ -1030,7 +1033,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>14</v>
@@ -1044,17 +1047,14 @@
       <c r="I28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="L28" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P28" s="7"/>
     </row>
@@ -1064,10 +1064,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -1077,16 +1077,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1112,7 +1112,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1120,16 +1120,16 @@
         <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1137,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>14</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1162,12 +1162,12 @@
         <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>15</v>
